--- a/Documents/Journal de bord SuperBlinder.xlsx
+++ b/Documents/Journal de bord SuperBlinder.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -38,18 +38,6 @@
     <t>Temps</t>
   </si>
   <si>
-    <t>Keanu</t>
-  </si>
-  <si>
-    <t>Jérôme</t>
-  </si>
-  <si>
-    <t>Les deux</t>
-  </si>
-  <si>
-    <t>Maison</t>
-  </si>
-  <si>
     <t>Tâche</t>
   </si>
   <si>
@@ -87,17 +75,81 @@
   </si>
   <si>
     <t>Adaptation et remplissage du journal de bord</t>
+  </si>
+  <si>
+    <t>Création des dernières stories et planification</t>
+  </si>
+  <si>
+    <t>Préparation du mail de planification initiale</t>
+  </si>
+  <si>
+    <t>Avancement de la documentation</t>
+  </si>
+  <si>
+    <t>Recherche, ajout et tests d'une extension icescrum pour exporter les tests d'acceptations</t>
+  </si>
+  <si>
+    <t>Imagination du MCD/MLD sur papier</t>
+  </si>
+  <si>
+    <t>Recherche et ajout d'option d'export dans icescrum</t>
+  </si>
+  <si>
+    <t>Aide pour le MCD/MLD d'un camarade</t>
+  </si>
+  <si>
+    <t>Dessiner le MCD/MLD sur ordinateur</t>
+  </si>
+  <si>
+    <t>Fin de mon MCD/MLD basic sur papier</t>
+  </si>
+  <si>
+    <t>Documentation du MCD/MLD pour chaque colonne</t>
+  </si>
+  <si>
+    <t>Création des tables intermédaires et explications des relations</t>
+  </si>
+  <si>
+    <t>Tables, champs et relations</t>
+  </si>
+  <si>
+    <t>Création du script de création de la base de donnée</t>
+  </si>
+  <si>
+    <t>Explications des colonnes et fk</t>
+  </si>
+  <si>
+    <t>Création des maquettes</t>
+  </si>
+  <si>
+    <t>Comparaisons de templates web</t>
+  </si>
+  <si>
+    <t>Maquettes gabarit, page connexion, page génération, page upload et page jeu</t>
+  </si>
+  <si>
+    <t>Mise en place du timesheet.html</t>
+  </si>
+  <si>
+    <t>Aide reçue de Thomas car cela ne fonctionnait pas</t>
+  </si>
+  <si>
+    <t>Création de la structure du site</t>
+  </si>
+  <si>
+    <t>Recherche de templates pour faire la maquette</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0\ &quot;minutes&quot;"/>
-    <numFmt numFmtId="175" formatCode="0.00\ &quot;heures&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00\ &quot;heures&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.00\ &quot;périodes&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +165,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -289,11 +348,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -346,15 +416,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,9 +437,7 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
+        <left/>
         <right/>
         <top style="thin">
           <color auto="1"/>
@@ -490,8 +562,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C5:F80" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="C5:F80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E36" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B5:E36"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -768,576 +840,410 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F81"/>
+  <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="91.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="22" t="s">
+    <row r="1" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22">
+        <f>SUM(Tableau1[Temps])</f>
+        <v>700</v>
+      </c>
+      <c r="D2" s="24">
+        <f>C2/45</f>
+        <v>15.555555555555555</v>
+      </c>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23">
+        <f>SUM(Tableau1[Temps])/60</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="D3" s="26">
+        <f ca="1">SUMIF(Tableau1[Date],TODAY(),Tableau1[Temps])/45</f>
+        <v>7.333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44319</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="23">
-        <f>SUM(Tableau1[Temps])</f>
-        <v>215</v>
-      </c>
-      <c r="E2">
-        <f>D2/45</f>
-        <v>4.7777777777777777</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="22" t="s">
+      <c r="C7" s="10">
+        <v>44319</v>
+      </c>
+      <c r="D7" s="11">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24">
-        <f>SUM(Tableau1[Temps])/60</f>
-        <v>3.5833333333333335</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="10">
+        <v>44319</v>
+      </c>
+      <c r="D8" s="11">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7">
+      <c r="C9" s="10">
         <v>44319</v>
       </c>
-      <c r="E6" s="8">
+      <c r="D9" s="11">
         <v>45</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12">
+        <v>44319</v>
+      </c>
+      <c r="D10" s="14">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44319</v>
+      </c>
+      <c r="D11" s="11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C12" s="12">
         <v>44319</v>
       </c>
-      <c r="E7" s="11">
+      <c r="D12" s="11">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44319</v>
+      </c>
+      <c r="D13" s="11">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44319</v>
+      </c>
+      <c r="D14" s="11">
         <v>30</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10">
         <v>44319</v>
       </c>
-      <c r="E8" s="11">
+      <c r="D15" s="11">
+        <v>30</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44319</v>
+      </c>
+      <c r="D16" s="11">
         <v>25</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="10">
         <v>44319</v>
       </c>
-      <c r="E9" s="11">
+      <c r="D17" s="11">
+        <v>40</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="10">
+        <v>44319</v>
+      </c>
+      <c r="D18" s="11">
+        <v>30</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44320</v>
+      </c>
+      <c r="D19" s="11">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44320</v>
+      </c>
+      <c r="D20" s="11">
+        <v>25</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="10">
+        <v>44320</v>
+      </c>
+      <c r="D21" s="11">
+        <v>35</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10">
+        <v>44320</v>
+      </c>
+      <c r="D22" s="11">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="10">
+        <v>44320</v>
+      </c>
+      <c r="D23" s="11">
         <v>45</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="12">
-        <v>44319</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="10">
+        <v>44320</v>
+      </c>
+      <c r="D24" s="11">
         <v>20</v>
       </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="10">
-        <v>44319</v>
-      </c>
-      <c r="E11" s="11">
-        <v>15</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="12">
-        <v>44319</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="E24" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44320</v>
+      </c>
+      <c r="D25" s="11">
         <v>20</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10">
-        <v>44319</v>
-      </c>
-      <c r="E13" s="11">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="20"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="9"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="9"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E80" s="21"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="19"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44320</v>
+      </c>
+      <c r="D26" s="11">
+        <v>70</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="10">
+        <v>44320</v>
+      </c>
+      <c r="D27" s="11">
+        <v>20</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10">
+        <v>44320</v>
+      </c>
+      <c r="D28" s="11">
+        <v>45</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Journal de bord SuperBlinder.xlsx
+++ b/Documents/Journal de bord SuperBlinder.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Adaptation du template de la doc</t>
   </si>
   <si>
-    <t>Préparation du git et architechture</t>
-  </si>
-  <si>
     <t>Réflexion maquettes</t>
   </si>
   <si>
@@ -138,6 +135,33 @@
   </si>
   <si>
     <t>Recherche de templates pour faire la maquette</t>
+  </si>
+  <si>
+    <t>Aide pour le timesheet.html pour un camarade</t>
+  </si>
+  <si>
+    <t>Tests dans icescrum</t>
+  </si>
+  <si>
+    <t>Tentative de mettre les vacances dans la planificiation</t>
+  </si>
+  <si>
+    <t>Dernières modification des maquettes</t>
+  </si>
+  <si>
+    <t>Préparation du git et architecture</t>
+  </si>
+  <si>
+    <t>Adaptation du canvas à mon projet, remplissage des paragraphes de base, ajout des MCD/MLD</t>
+  </si>
+  <si>
+    <t>Ajout des maquettes, remplissage des parties de la conception</t>
+  </si>
+  <si>
+    <t>Sprint retrospective 1</t>
+  </si>
+  <si>
+    <t>Création d'une planification pour le sprint 1</t>
   </si>
 </sst>
 </file>
@@ -562,8 +586,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E36" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B5:E36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E42" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B5:E42"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -840,10 +864,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F37"/>
+  <dimension ref="B1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,11 +888,11 @@
       </c>
       <c r="C2" s="22">
         <f>SUM(Tableau1[Temps])</f>
-        <v>700</v>
+        <v>820</v>
       </c>
       <c r="D2" s="24">
         <f>C2/45</f>
-        <v>15.555555555555555</v>
+        <v>18.222222222222221</v>
       </c>
       <c r="E2" s="25"/>
     </row>
@@ -878,11 +902,11 @@
       </c>
       <c r="C3" s="23">
         <f>SUM(Tableau1[Temps])/60</f>
-        <v>11.666666666666666</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="D3" s="26">
         <f ca="1">SUMIF(Tableau1[Date],TODAY(),Tableau1[Temps])/45</f>
-        <v>7.333333333333333</v>
+        <v>1.7777777777777777</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -956,7 +980,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="12">
         <v>44319</v>
@@ -968,7 +992,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C11" s="10">
         <v>44319</v>
@@ -992,7 +1016,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="10">
         <v>44319</v>
@@ -1004,7 +1028,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10">
         <v>44319</v>
@@ -1016,7 +1040,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="10">
         <v>44319</v>
@@ -1028,7 +1052,7 @@
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="10">
         <v>44319</v>
@@ -1037,12 +1061,12 @@
         <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="10">
         <v>44319</v>
@@ -1050,11 +1074,13 @@
       <c r="D17" s="11">
         <v>40</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="10">
         <v>44319</v>
@@ -1066,7 +1092,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="10">
         <v>44320</v>
@@ -1075,12 +1101,12 @@
         <v>20</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="10">
         <v>44320</v>
@@ -1092,7 +1118,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="10">
         <v>44320</v>
@@ -1101,12 +1127,12 @@
         <v>35</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10">
         <v>44320</v>
@@ -1115,12 +1141,12 @@
         <v>30</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="10">
         <v>44320</v>
@@ -1132,7 +1158,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="10">
         <v>44320</v>
@@ -1141,12 +1167,12 @@
         <v>20</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="10">
         <v>44320</v>
@@ -1158,7 +1184,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="10">
         <v>44320</v>
@@ -1167,12 +1193,12 @@
         <v>70</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="10">
         <v>44320</v>
@@ -1181,69 +1207,141 @@
         <v>20</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="C28" s="10">
         <v>44320</v>
       </c>
       <c r="D28" s="11">
         <v>45</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44322</v>
+      </c>
+      <c r="D29" s="11">
+        <v>25</v>
+      </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="10">
+        <v>44322</v>
+      </c>
+      <c r="D30" s="11">
+        <v>10</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="5"/>
+      <c r="B31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44322</v>
+      </c>
+      <c r="D31" s="11">
+        <v>15</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="5"/>
+      <c r="B32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="10">
+        <v>44322</v>
+      </c>
+      <c r="D32" s="11">
+        <v>30</v>
+      </c>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="5"/>
+      <c r="B33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="10">
+        <v>44292</v>
+      </c>
+      <c r="D33" s="11">
+        <v>40</v>
+      </c>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="20"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Journal de bord SuperBlinder.xlsx
+++ b/Documents/Journal de bord SuperBlinder.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -158,10 +158,70 @@
     <t>Ajout des maquettes, remplissage des parties de la conception</t>
   </si>
   <si>
-    <t>Sprint retrospective 1</t>
-  </si>
-  <si>
     <t>Création d'une planification pour le sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint review 1</t>
+  </si>
+  <si>
+    <t>Sprint rétrospective sprint 1</t>
+  </si>
+  <si>
+    <t>Entretien avec mon chef de projet</t>
+  </si>
+  <si>
+    <t>Questions sur la méthodologie agile</t>
+  </si>
+  <si>
+    <t>Aide d'un camarade sur raspberry pi</t>
+  </si>
+  <si>
+    <t>Ajout des tâches et tests du sprint 2</t>
+  </si>
+  <si>
+    <t>Mettre à jour le MCD/MLD</t>
+  </si>
+  <si>
+    <t>Préparation du icescrum pour sprint 2</t>
+  </si>
+  <si>
+    <t>Ecriture des tâches à rattraper (urgentes), actualisation des tâches récusives</t>
+  </si>
+  <si>
+    <t>Corriger structure du site</t>
+  </si>
+  <si>
+    <t>Utilisation du même volcabulaire partout</t>
+  </si>
+  <si>
+    <t>Planification du sprint 2</t>
+  </si>
+  <si>
+    <t>Enlevé creatorId pour GAMES, mis les commentaires dans la doc et autres</t>
+  </si>
+  <si>
+    <t>Actualisation de la doc</t>
+  </si>
+  <si>
+    <t>Changement des images (MCD/MLD, structure, planif) et des commentaires</t>
+  </si>
+  <si>
+    <t>Exportation et adaptation icescrum du sprint 1</t>
+  </si>
+  <si>
+    <t>Exportation/récuperation des tests en format lisible</t>
+  </si>
+  <si>
+    <t>Répartition du temps et des dépendences</t>
+  </si>
+  <si>
+    <t>Problème pour revert un commit</t>
+  </si>
+  <si>
+    <t>Problème en ayant commit le mauvais fichier, j'ai du rechercher les commandes a faire pour ne pas perdre certains fichiers</t>
+  </si>
+  <si>
+    <t>Passer les tests du sprint 1</t>
   </si>
 </sst>
 </file>
@@ -387,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -397,9 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -452,6 +509,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,8 +649,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E42" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B5:E42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E51" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B5:E51"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -864,13 +927,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E43"/>
+  <dimension ref="B1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
@@ -883,34 +946,34 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <f>SUM(Tableau1[Temps])</f>
-        <v>820</v>
-      </c>
-      <c r="D2" s="24">
+        <v>1050</v>
+      </c>
+      <c r="D2" s="23">
         <f>C2/45</f>
-        <v>18.222222222222221</v>
-      </c>
-      <c r="E2" s="25"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <f>SUM(Tableau1[Temps])/60</f>
-        <v>13.666666666666666</v>
-      </c>
-      <c r="D3" s="26">
+        <v>17.5</v>
+      </c>
+      <c r="D3" s="25">
         <f ca="1">SUMIF(Tableau1[Date],TODAY(),Tableau1[Temps])/45</f>
-        <v>1.7777777777777777</v>
+        <v>7.7777777777777777</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>0</v>
       </c>
     </row>
@@ -929,419 +992,567 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="29">
+        <v>44319</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="9">
         <v>44319</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="10">
         <v>45</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C8" s="9">
         <v>44319</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="10">
         <v>30</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C9" s="9">
         <v>44319</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="10">
         <v>25</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C10" s="9">
         <v>44319</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="10">
         <v>45</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C11" s="11">
         <v>44319</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="13">
         <v>20</v>
       </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C12" s="9">
         <v>44319</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="10">
         <v>15</v>
       </c>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C13" s="11">
         <v>44319</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="10">
         <v>20</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C14" s="9">
         <v>44319</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="10">
         <v>15</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C15" s="9">
         <v>44319</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="10">
         <v>30</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C16" s="9">
         <v>44319</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="10">
         <v>30</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C17" s="9">
         <v>44319</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="10">
         <v>25</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+    <row r="18" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C18" s="9">
         <v>44319</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="10">
         <v>40</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+    <row r="19" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C19" s="9">
         <v>44319</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="10">
         <v>30</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="28">
+        <v>44320</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C21" s="9">
         <v>44320</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D21" s="10">
         <v>20</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+    <row r="22" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C22" s="9">
         <v>44320</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D22" s="10">
         <v>25</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C23" s="9">
         <v>44320</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D23" s="10">
         <v>35</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+    <row r="24" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C24" s="9">
         <v>44320</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D24" s="10">
         <v>30</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+    <row r="25" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C25" s="9">
         <v>44320</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D25" s="10">
         <v>45</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C26" s="9">
         <v>44320</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D26" s="10">
         <v>20</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E26" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+    <row r="27" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C27" s="9">
         <v>44320</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D27" s="10">
         <v>20</v>
       </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C28" s="9">
         <v>44320</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D28" s="10">
         <v>70</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+    <row r="29" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C29" s="9">
         <v>44320</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D29" s="10">
         <v>20</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+    <row r="30" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C30" s="9">
         <v>44320</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D30" s="10">
         <v>45</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+    <row r="31" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="28">
+        <v>44322</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="10">
-        <v>44322</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="C32" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D32" s="10">
+        <v>30</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D33" s="10">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D34" s="10">
+        <v>15</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D35" s="10">
+        <v>30</v>
+      </c>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D36" s="10">
+        <v>20</v>
+      </c>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D37" s="10">
+        <v>15</v>
+      </c>
+      <c r="E37" s="27"/>
+    </row>
+    <row r="38" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D38" s="10">
+        <v>10</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D39" s="10">
+        <v>45</v>
+      </c>
+      <c r="E39" s="27"/>
+    </row>
+    <row r="40" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D40" s="10">
+        <v>20</v>
+      </c>
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D41" s="10">
+        <v>20</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D42" s="10">
+        <v>10</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D43" s="10">
         <v>25</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="10">
-        <v>44322</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="E43" s="27"/>
+    </row>
+    <row r="44" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D44" s="10">
+        <v>20</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D45" s="10">
         <v>10</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="10">
-        <v>44322</v>
-      </c>
-      <c r="D31" s="11">
-        <v>15</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="10">
-        <v>44322</v>
-      </c>
-      <c r="D32" s="11">
-        <v>30</v>
-      </c>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="10">
-        <v>44292</v>
-      </c>
-      <c r="D33" s="11">
-        <v>40</v>
-      </c>
-      <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="28"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
+      <c r="E45" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D46" s="10">
+        <v>25</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D47" s="10">
+        <v>20</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="9">
+        <v>44322</v>
+      </c>
+      <c r="D48" s="10">
+        <v>25</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Journal de bord SuperBlinder.xlsx
+++ b/Documents/Journal de bord SuperBlinder.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +222,42 @@
   </si>
   <si>
     <t>Passer les tests du sprint 1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Préparation du mail de fin de semaine</t>
+  </si>
+  <si>
+    <t>Résumé de la print review</t>
+  </si>
+  <si>
+    <t>Correction du script de création de db</t>
+  </si>
+  <si>
+    <t>Aide sql pour un camarade</t>
+  </si>
+  <si>
+    <t>Création d'un index.php basique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réflexion et création des fichiers php </t>
+  </si>
+  <si>
+    <t>Adaptation de la banière du template</t>
+  </si>
+  <si>
+    <t>Adaptation du fichier de connexion à la base de donnée</t>
+  </si>
+  <si>
+    <t>Création d'un utilisateur de test sur mysql</t>
+  </si>
+  <si>
+    <t>Création de la majorité des fichiers php nécessaires</t>
+  </si>
+  <si>
+    <t>Récupération et adaptation du template général</t>
   </si>
 </sst>
 </file>
@@ -233,7 +269,7 @@
     <numFmt numFmtId="165" formatCode="0.00\ &quot;heures&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;périodes&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +288,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,12 +487,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -464,9 +507,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -476,18 +516,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -500,7 +534,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -510,17 +543,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -559,21 +624,6 @@
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -649,13 +699,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E51" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B5:E51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E71" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B5:E71"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tâche" dataDxfId="3"/>
-    <tableColumn id="3" name="Date" dataDxfId="2"/>
-    <tableColumn id="4" name="Temps" dataDxfId="1"/>
-    <tableColumn id="5" name="Description complète" dataDxfId="0"/>
+    <tableColumn id="1" name="Tâche" dataDxfId="0"/>
+    <tableColumn id="3" name="Date" dataDxfId="3"/>
+    <tableColumn id="4" name="Temps" dataDxfId="2"/>
+    <tableColumn id="5" name="Description complète" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -927,16 +977,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E52"/>
+  <dimension ref="B1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="24" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="75.28515625" customWidth="1"/>
@@ -946,613 +996,801 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="16">
         <f>SUM(Tableau1[Temps])</f>
-        <v>1050</v>
-      </c>
-      <c r="D2" s="23">
+        <v>1220</v>
+      </c>
+      <c r="D2" s="18">
         <f>C2/45</f>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="E2" s="24"/>
+        <v>27.111111111111111</v>
+      </c>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="17">
         <f>SUM(Tableau1[Temps])/60</f>
-        <v>17.5</v>
-      </c>
-      <c r="D3" s="25">
+        <v>20.333333333333332</v>
+      </c>
+      <c r="D3" s="20">
         <f ca="1">SUMIF(Tableau1[Date],TODAY(),Tableau1[Temps])/45</f>
-        <v>7.7777777777777777</v>
+        <v>3.7777777777777777</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="26">
+      <c r="C4" s="23">
+        <f>C3/90</f>
+        <v>0.22592592592592592</v>
+      </c>
+      <c r="D4" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29">
+      <c r="B6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="5">
         <v>44319</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>44319</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>45</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>44319</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>30</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>44319</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>25</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>44319</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>45</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>44319</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>20</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>44319</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>15</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>44319</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>20</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>44319</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>15</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>44319</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>30</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>44319</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>30</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>44319</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>25</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>44319</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>40</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>44319</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>30</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28">
+      <c r="B20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="7">
         <v>44320</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="27"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>44320</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>20</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>44320</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>25</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>44320</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>35</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>44320</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>30</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>44320</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>45</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>44320</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>20</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>44320</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>20</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>44320</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>70</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>44320</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>20</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>44320</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>45</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="28">
+      <c r="B31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="7">
         <v>44322</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="27"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="7">
         <v>44322</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>30</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="7">
         <v>44322</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>10</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="7">
         <v>44322</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>15</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="7">
         <v>44322</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>30</v>
       </c>
-      <c r="E35" s="27"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="7">
         <v>44322</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>20</v>
       </c>
-      <c r="E36" s="27"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="7">
         <v>44322</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>15</v>
       </c>
-      <c r="E37" s="27"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="7">
         <v>44322</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>10</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="7">
         <v>44322</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>45</v>
       </c>
-      <c r="E39" s="27"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="7">
         <v>44322</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>20</v>
       </c>
-      <c r="E40" s="27"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="7">
         <v>44322</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>20</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="E41" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="7">
         <v>44322</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>10</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="7">
         <v>44322</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <v>25</v>
       </c>
-      <c r="E43" s="27"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="7">
         <v>44322</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>20</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="7">
         <v>44322</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <v>10</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="7">
         <v>44322</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <v>25</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="7">
         <v>44322</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>20</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="7">
         <v>44322</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <v>25</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
+      <c r="B49" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="7">
+        <v>44323</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="7">
+        <v>44323</v>
+      </c>
+      <c r="D50" s="8">
+        <v>20</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="7">
+        <v>44323</v>
+      </c>
+      <c r="D51" s="8">
+        <v>10</v>
+      </c>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="7">
+        <v>44323</v>
+      </c>
+      <c r="D52" s="8">
+        <v>20</v>
+      </c>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="7">
+        <v>44323</v>
+      </c>
+      <c r="D53" s="8">
+        <v>10</v>
+      </c>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="7">
+        <v>44323</v>
+      </c>
+      <c r="D54" s="8">
+        <v>10</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="7">
+        <v>44323</v>
+      </c>
+      <c r="D55" s="8">
+        <v>20</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="7">
+        <v>44323</v>
+      </c>
+      <c r="D56" s="8">
+        <v>35</v>
+      </c>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="7">
+        <v>44323</v>
+      </c>
+      <c r="D57" s="8">
+        <v>45</v>
+      </c>
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="27"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="27"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="27"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="27"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="27"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="27"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="27"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="27"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="27"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="27"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="27"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="27"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="22"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="27"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="15"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="30"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Journal de bord SuperBlinder.xlsx
+++ b/Documents/Journal de bord SuperBlinder.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -258,6 +258,72 @@
   </si>
   <si>
     <t>Récupération et adaptation du template général</t>
+  </si>
+  <si>
+    <t>Importation de css pour un menu déroulant</t>
+  </si>
+  <si>
+    <t>Pas gardé au final</t>
+  </si>
+  <si>
+    <t>Problèmes pour faire un header reponsive</t>
+  </si>
+  <si>
+    <t>Temps passé a faire des essais en css pour que le header passe en multiligne sur petit écran mais que le logo soit centré sur grand écran</t>
+  </si>
+  <si>
+    <t>Refaire le header et mettre le texte du header en responsive</t>
+  </si>
+  <si>
+    <t>Copie et adaptation de la page connexion</t>
+  </si>
+  <si>
+    <t>Création de la page de génération</t>
+  </si>
+  <si>
+    <t>Changé le css des inputs et buttons</t>
+  </si>
+  <si>
+    <t>Script pour afficher la difficulté en live</t>
+  </si>
+  <si>
+    <t>Css global de la page jeu et affichage des boutons en carré</t>
+  </si>
+  <si>
+    <t>Début d'affichage centré automitique pour la vidéo</t>
+  </si>
+  <si>
+    <t>Test avec le lecteur de vidéo</t>
+  </si>
+  <si>
+    <t>Taille max, lecture automatique et autres</t>
+  </si>
+  <si>
+    <t>Cacher les choix au lancement de la vidéo</t>
+  </si>
+  <si>
+    <t>Entretien personnel ES</t>
+  </si>
+  <si>
+    <t>Aide d'un camarade pour des dates</t>
+  </si>
+  <si>
+    <t>Css barre coté pour jeu et nettoyage du css global</t>
+  </si>
+  <si>
+    <t>Tests pour autoplay la vidéo</t>
+  </si>
+  <si>
+    <t>Page upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation mail </t>
+  </si>
+  <si>
+    <t>Aide camarade css flex</t>
+  </si>
+  <si>
+    <t>Tests et ajustements de css</t>
   </si>
 </sst>
 </file>
@@ -491,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -547,23 +613,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,21 +643,6 @@
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -624,6 +681,21 @@
         <left style="thin">
           <color auto="1"/>
         </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -699,13 +771,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E71" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B5:E71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E90" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B5:E90"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tâche" dataDxfId="0"/>
-    <tableColumn id="3" name="Date" dataDxfId="3"/>
-    <tableColumn id="4" name="Temps" dataDxfId="2"/>
-    <tableColumn id="5" name="Description complète" dataDxfId="1"/>
+    <tableColumn id="1" name="Tâche" dataDxfId="3"/>
+    <tableColumn id="3" name="Date" dataDxfId="2"/>
+    <tableColumn id="4" name="Temps" dataDxfId="1"/>
+    <tableColumn id="5" name="Description complète" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,10 +1049,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E72"/>
+  <dimension ref="B1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1001,11 +1073,11 @@
       </c>
       <c r="C2" s="16">
         <f>SUM(Tableau1[Temps])</f>
-        <v>1220</v>
+        <v>1875</v>
       </c>
       <c r="D2" s="18">
         <f>C2/45</f>
-        <v>27.111111111111111</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -1015,24 +1087,28 @@
       </c>
       <c r="C3" s="17">
         <f>SUM(Tableau1[Temps])/60</f>
-        <v>20.333333333333332</v>
+        <v>31.25</v>
       </c>
       <c r="D3" s="20">
         <f ca="1">SUMIF(Tableau1[Date],TODAY(),Tableau1[Temps])/45</f>
-        <v>3.7777777777777777</v>
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="E3" s="20">
+        <f ca="1">SUMIF(Tableau1[Date],TODAY()-1,Tableau1[Temps])/45</f>
+        <v>7.4444444444444446</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="23">
         <f>C3/90</f>
-        <v>0.22592592592592592</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="D4" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1046,7 +1122,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="5">
@@ -1056,7 +1132,7 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="7">
@@ -1070,7 +1146,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7">
@@ -1082,7 +1158,7 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7">
@@ -1094,7 +1170,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" ht="15" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
@@ -1106,7 +1182,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="9">
@@ -1118,7 +1194,7 @@
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="7">
@@ -1130,7 +1206,7 @@
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9">
@@ -1142,7 +1218,7 @@
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="7">
@@ -1154,7 +1230,7 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="7">
@@ -1166,7 +1242,7 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="7">
@@ -1178,7 +1254,7 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="7">
@@ -1192,7 +1268,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="7">
@@ -1206,7 +1282,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="7">
@@ -1218,7 +1294,7 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="7">
@@ -1228,7 +1304,7 @@
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="7">
@@ -1242,7 +1318,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="7">
@@ -1254,7 +1330,7 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="7">
@@ -1268,7 +1344,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="7">
@@ -1282,7 +1358,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="7">
@@ -1294,7 +1370,7 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="29" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="7">
@@ -1308,7 +1384,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="7">
@@ -1320,7 +1396,7 @@
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="7">
@@ -1334,7 +1410,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="7">
@@ -1348,7 +1424,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="7">
@@ -1362,7 +1438,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="7">
@@ -1372,7 +1448,7 @@
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="29" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="7">
@@ -1384,7 +1460,7 @@
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="7">
@@ -1396,7 +1472,7 @@
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="7">
@@ -1410,7 +1486,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="7">
@@ -1422,7 +1498,7 @@
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="7">
@@ -1434,7 +1510,7 @@
       <c r="E36" s="22"/>
     </row>
     <row r="37" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="7">
@@ -1446,7 +1522,7 @@
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="7">
@@ -1460,7 +1536,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="7">
@@ -1472,7 +1548,7 @@
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C40" s="7">
@@ -1484,7 +1560,7 @@
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C41" s="7">
@@ -1498,7 +1574,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="7">
@@ -1512,7 +1588,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C43" s="7">
@@ -1524,7 +1600,7 @@
       <c r="E43" s="22"/>
     </row>
     <row r="44" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="7">
@@ -1538,7 +1614,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C45" s="7">
@@ -1552,7 +1628,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="29" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="7">
@@ -1566,7 +1642,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="7">
@@ -1580,7 +1656,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="29" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="7">
@@ -1594,7 +1670,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="26" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="7">
@@ -1603,8 +1679,8 @@
       <c r="D49" s="8"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="27" t="s">
+    <row r="50" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="7">
@@ -1617,8 +1693,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="s">
+    <row r="51" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="7">
@@ -1629,8 +1705,8 @@
       </c>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="27" t="s">
+    <row r="52" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C52" s="7">
@@ -1641,8 +1717,8 @@
       </c>
       <c r="E52" s="22"/>
     </row>
-    <row r="53" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="27" t="s">
+    <row r="53" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C53" s="7">
@@ -1653,8 +1729,8 @@
       </c>
       <c r="E53" s="22"/>
     </row>
-    <row r="54" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="s">
+    <row r="54" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="7">
@@ -1667,8 +1743,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="27" t="s">
+    <row r="55" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="29" t="s">
         <v>72</v>
       </c>
       <c r="C55" s="7">
@@ -1681,8 +1757,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="27" t="s">
+    <row r="56" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="29" t="s">
         <v>75</v>
       </c>
       <c r="C56" s="7">
@@ -1693,8 +1769,8 @@
       </c>
       <c r="E56" s="22"/>
     </row>
-    <row r="57" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="27" t="s">
+    <row r="57" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="29" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="7">
@@ -1705,92 +1781,347 @@
       </c>
       <c r="E57" s="22"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="27"/>
-      <c r="C58" s="7"/>
+    <row r="58" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="7">
+        <v>44326</v>
+      </c>
       <c r="D58" s="8"/>
       <c r="E58" s="22"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="22"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
+    <row r="59" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="7">
+        <v>44326</v>
+      </c>
+      <c r="D59" s="8">
+        <v>70</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="7">
+        <v>44326</v>
+      </c>
+      <c r="D60" s="8">
+        <v>30</v>
+      </c>
       <c r="E60" s="22"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="27"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
+    <row r="61" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="7">
+        <v>44326</v>
+      </c>
+      <c r="D61" s="8">
+        <v>10</v>
+      </c>
       <c r="E61" s="22"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
+    <row r="62" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="7">
+        <v>44326</v>
+      </c>
+      <c r="D62" s="8">
+        <v>45</v>
+      </c>
       <c r="E62" s="22"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="27"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="22"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8"/>
+    <row r="63" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="7">
+        <v>44326</v>
+      </c>
+      <c r="D63" s="8">
+        <v>30</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="7">
+        <v>44326</v>
+      </c>
+      <c r="D64" s="8">
+        <v>50</v>
+      </c>
       <c r="E64" s="22"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="27"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
+    <row r="65" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="7">
+        <v>44326</v>
+      </c>
+      <c r="D65" s="8">
+        <v>15</v>
+      </c>
       <c r="E65" s="22"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
+    <row r="66" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="7">
+        <v>44326</v>
+      </c>
+      <c r="D66" s="8">
+        <v>20</v>
+      </c>
       <c r="E66" s="22"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
+    <row r="67" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="7">
+        <v>44326</v>
+      </c>
+      <c r="D67" s="8">
+        <v>35</v>
+      </c>
       <c r="E67" s="22"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
+    <row r="68" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="7">
+        <v>44326</v>
+      </c>
+      <c r="D68" s="8">
+        <v>30</v>
+      </c>
       <c r="E68" s="22"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="27"/>
-      <c r="C69" s="7"/>
+    <row r="69" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="7">
+        <v>44327</v>
+      </c>
       <c r="D69" s="8"/>
       <c r="E69" s="22"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8"/>
+      <c r="B70" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D70" s="8">
+        <v>45</v>
+      </c>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="15"/>
+      <c r="B71" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D71" s="8">
+        <v>30</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="30"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14"/>
+      <c r="B72" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D72" s="8">
+        <v>30</v>
+      </c>
+      <c r="E72" s="22"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D73" s="8">
+        <v>10</v>
+      </c>
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D74" s="8">
+        <v>15</v>
+      </c>
+      <c r="E74" s="22"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D75" s="8">
+        <v>15</v>
+      </c>
+      <c r="E75" s="22"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D76" s="8">
+        <v>45</v>
+      </c>
+      <c r="E76" s="22"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D77" s="8">
+        <v>15</v>
+      </c>
+      <c r="E77" s="22"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D78" s="8">
+        <v>70</v>
+      </c>
+      <c r="E78" s="22"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D79" s="8">
+        <v>25</v>
+      </c>
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="7">
+        <v>44327</v>
+      </c>
+      <c r="D80" s="8">
+        <v>20</v>
+      </c>
+      <c r="E80" s="22"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="29"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="22"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="29"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="29"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="22"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="29"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="22"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="29"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="22"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="29"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="22"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="29"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="22"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="29"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="22"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="29"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="22"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="32"/>
+      <c r="D90" s="15"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="27"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Journal de bord SuperBlinder.xlsx
+++ b/Documents/Journal de bord SuperBlinder.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
@@ -324,6 +324,165 @@
   </si>
   <si>
     <t>Tests et ajustements de css</t>
+  </si>
+  <si>
+    <t>Boutons, sélections et textes</t>
+  </si>
+  <si>
+    <t>Script javascript du jeu</t>
+  </si>
+  <si>
+    <t>Timer, transitions entre audio seulement et vidéo à la fin, déblocage des sélections</t>
+  </si>
+  <si>
+    <t>Aide pour un camarade sur raspberry pi</t>
+  </si>
+  <si>
+    <t>Documentation, fin d'analyse</t>
+  </si>
+  <si>
+    <t>Ajout des tests basiques, des planifications déjà faites et avancement général</t>
+  </si>
+  <si>
+    <t>Passages des tests du sprint 2</t>
+  </si>
+  <si>
+    <t>Refaire une partie des images à cause de la perte de données</t>
+  </si>
+  <si>
+    <t>Refaire certains documents, les images avait été sauvées mais pas les fichiers de base</t>
+  </si>
+  <si>
+    <t>Préparation des tâches du sprint 3</t>
+  </si>
+  <si>
+    <t>Aide pour un camarade pour de la gestion de dates</t>
+  </si>
+  <si>
+    <t>Vérifications de responsivité + sur mobile</t>
+  </si>
+  <si>
+    <t>Modifications et tests de css légers</t>
+  </si>
+  <si>
+    <t>Sprint review 2</t>
+  </si>
+  <si>
+    <t>Fin des tâches du sprint 3</t>
+  </si>
+  <si>
+    <t>Début des tests du sprint 3</t>
+  </si>
+  <si>
+    <t>Fin des tests du sprint 3</t>
+  </si>
+  <si>
+    <t>Séparé l'appelation blind test et partie</t>
+  </si>
+  <si>
+    <t>Sprint retrospective 3</t>
+  </si>
+  <si>
+    <t>Changement dans la documentation</t>
+  </si>
+  <si>
+    <t>Affichage des sprints et choix de l'hébergement et autre</t>
+  </si>
+  <si>
+    <t>Début du register</t>
+  </si>
+  <si>
+    <t>Aide pour le SQL d'un camarade</t>
+  </si>
+  <si>
+    <t>Planification sprint 3 et actualisation doc</t>
+  </si>
+  <si>
+    <t>Tests pour convertir les image/son en vidéo</t>
+  </si>
+  <si>
+    <t>Tests avec un script</t>
+  </si>
+  <si>
+    <t>Création du register fonctionnel</t>
+  </si>
+  <si>
+    <t>Débuggage de la connexion avec la db</t>
+  </si>
+  <si>
+    <t>Régler les problèmes qui empêchaient la connexion</t>
+  </si>
+  <si>
+    <t>Création de données de test pour les extraits</t>
+  </si>
+  <si>
+    <t>Aide d'un camarade pour l'upload de fichiers</t>
+  </si>
+  <si>
+    <t>Aide d'un camarade pour du javascript</t>
+  </si>
+  <si>
+    <t>Ajout du login</t>
+  </si>
+  <si>
+    <t>Récupération des infos et affichage</t>
+  </si>
+  <si>
+    <t>Sauvegarde en "local" des infos de l'utilisateur et affichage dans le template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rencontre 2ème expert </t>
+  </si>
+  <si>
+    <t>Génération du code de la partie</t>
+  </si>
+  <si>
+    <t>Stockage dans la session pour recharger le tableau</t>
+  </si>
+  <si>
+    <t>Préparation formulaire de génération</t>
+  </si>
+  <si>
+    <t>Stockage de toutes les pistes par partie d'un coup</t>
+  </si>
+  <si>
+    <t>Changement sur la façon d'enregister les données</t>
+  </si>
+  <si>
+    <t>Tentative de mettre en ligne le site</t>
+  </si>
+  <si>
+    <t>Génération de la liste de pistes de la partie</t>
+  </si>
+  <si>
+    <t>Filtrage des pistes pour créer une partie</t>
+  </si>
+  <si>
+    <t>Stockage dans la session des information de la partie</t>
+  </si>
+  <si>
+    <t>Créer la façon de gérer et stocker la partie en local</t>
+  </si>
+  <si>
+    <t>Réfléxion sur la génération de partie</t>
+  </si>
+  <si>
+    <t>Recherche et adaptation pour retourner le nouvel id + nouvelle gestion des erreurs</t>
+  </si>
+  <si>
+    <t>Erreur avec la base de donnée distante</t>
+  </si>
+  <si>
+    <t>Aide d'un camarade pour de la gestion d'erreurs</t>
+  </si>
+  <si>
+    <t>Changement sur la gestion des inserts</t>
+  </si>
+  <si>
+    <t>Changer la façon d'afficher les messages et adaptation</t>
+  </si>
+  <si>
+    <t>Gestion de la session pour le login et affichage dans le template</t>
   </si>
 </sst>
 </file>
@@ -771,8 +930,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E90" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B5:E90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E142" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B5:E142"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1049,10 +1208,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E91"/>
+  <dimension ref="B1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1073,11 +1232,11 @@
       </c>
       <c r="C2" s="16">
         <f>SUM(Tableau1[Temps])</f>
-        <v>1875</v>
+        <v>3050</v>
       </c>
       <c r="D2" s="18">
         <f>C2/45</f>
-        <v>41.666666666666664</v>
+        <v>67.777777777777771</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -1087,23 +1246,26 @@
       </c>
       <c r="C3" s="17">
         <f>SUM(Tableau1[Temps])/60</f>
-        <v>31.25</v>
+        <v>50.833333333333336</v>
       </c>
       <c r="D3" s="20">
         <f ca="1">SUMIF(Tableau1[Date],TODAY(),Tableau1[Temps])/45</f>
-        <v>7.1111111111111107</v>
+        <v>3.7777777777777777</v>
       </c>
       <c r="E3" s="20">
         <f ca="1">SUMIF(Tableau1[Date],TODAY()-1,Tableau1[Temps])/45</f>
-        <v>7.4444444444444446</v>
+        <v>7.8888888888888893</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="23">
         <f>C3/90</f>
-        <v>0.34722222222222221</v>
+        <v>0.56481481481481488</v>
       </c>
       <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1925,7 +2087,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="22"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
         <v>92</v>
       </c>
@@ -1937,7 +2099,7 @@
       </c>
       <c r="E70" s="22"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B71" s="29" t="s">
         <v>87</v>
       </c>
@@ -1951,7 +2113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B72" s="29" t="s">
         <v>93</v>
       </c>
@@ -1963,7 +2125,7 @@
       </c>
       <c r="E72" s="22"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B73" s="29" t="s">
         <v>89</v>
       </c>
@@ -1975,7 +2137,7 @@
       </c>
       <c r="E73" s="22"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B74" s="29" t="s">
         <v>97</v>
       </c>
@@ -1987,7 +2149,7 @@
       </c>
       <c r="E74" s="22"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B75" s="29" t="s">
         <v>91</v>
       </c>
@@ -1999,7 +2161,7 @@
       </c>
       <c r="E75" s="22"/>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B76" s="29" t="s">
         <v>90</v>
       </c>
@@ -2011,7 +2173,7 @@
       </c>
       <c r="E76" s="22"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77" s="29" t="s">
         <v>47</v>
       </c>
@@ -2023,7 +2185,7 @@
       </c>
       <c r="E77" s="22"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B78" s="29" t="s">
         <v>94</v>
       </c>
@@ -2035,7 +2197,7 @@
       </c>
       <c r="E78" s="22"/>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B79" s="29" t="s">
         <v>96</v>
       </c>
@@ -2047,7 +2209,7 @@
       </c>
       <c r="E79" s="22"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B80" s="29" t="s">
         <v>95</v>
       </c>
@@ -2059,73 +2221,667 @@
       </c>
       <c r="E80" s="22"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="29"/>
-      <c r="C81" s="7"/>
+    <row r="81" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="7">
+        <v>44333</v>
+      </c>
       <c r="D81" s="8"/>
       <c r="E81" s="22"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="29"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="8"/>
+    <row r="82" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="7">
+        <v>44333</v>
+      </c>
+      <c r="D82" s="8">
+        <v>45</v>
+      </c>
       <c r="E82" s="22"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="29"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="22"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="29"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="22"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="29"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
+    <row r="83" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="7">
+        <v>44333</v>
+      </c>
+      <c r="D83" s="8">
+        <v>40</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="7">
+        <v>44333</v>
+      </c>
+      <c r="D84" s="8">
+        <v>60</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="7">
+        <v>44333</v>
+      </c>
+      <c r="D85" s="8">
+        <v>15</v>
+      </c>
       <c r="E85" s="22"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="29"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="22"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="29"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="22"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="29"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="8"/>
+    <row r="86" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="7">
+        <v>44333</v>
+      </c>
+      <c r="D86" s="8">
+        <v>70</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="7">
+        <v>44333</v>
+      </c>
+      <c r="D87" s="8">
+        <v>15</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="7">
+        <v>44333</v>
+      </c>
+      <c r="D88" s="8">
+        <v>25</v>
+      </c>
       <c r="E88" s="22"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="29"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8"/>
+    <row r="89" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="7">
+        <v>44333</v>
+      </c>
+      <c r="D89" s="8">
+        <v>45</v>
+      </c>
       <c r="E89" s="22"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="32"/>
-      <c r="D90" s="15"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="27"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14"/>
+    <row r="90" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="7">
+        <v>44333</v>
+      </c>
+      <c r="D90" s="8">
+        <v>10</v>
+      </c>
+      <c r="E90" s="22"/>
+    </row>
+    <row r="91" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="22"/>
+    </row>
+    <row r="92" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D92" s="8">
+        <v>30</v>
+      </c>
+      <c r="E92" s="22"/>
+    </row>
+    <row r="93" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D93" s="8">
+        <v>20</v>
+      </c>
+      <c r="E93" s="22"/>
+    </row>
+    <row r="94" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D94" s="8">
+        <v>40</v>
+      </c>
+      <c r="E94" s="22"/>
+    </row>
+    <row r="95" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D95" s="8">
+        <v>25</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D96" s="8">
+        <v>45</v>
+      </c>
+      <c r="E96" s="22"/>
+    </row>
+    <row r="97" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D97" s="8">
+        <v>10</v>
+      </c>
+      <c r="E97" s="22"/>
+    </row>
+    <row r="98" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D98" s="8">
+        <v>30</v>
+      </c>
+      <c r="E98" s="22"/>
+    </row>
+    <row r="99" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D99" s="8">
+        <v>30</v>
+      </c>
+      <c r="E99" s="22"/>
+    </row>
+    <row r="100" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D100" s="8">
+        <v>45</v>
+      </c>
+      <c r="E100" s="22"/>
+    </row>
+    <row r="101" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D101" s="8">
+        <v>20</v>
+      </c>
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="7">
+        <v>44334</v>
+      </c>
+      <c r="D102" s="8">
+        <v>30</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="22"/>
+    </row>
+    <row r="104" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D104" s="8">
+        <v>20</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D105" s="8">
+        <v>45</v>
+      </c>
+      <c r="E105" s="22"/>
+    </row>
+    <row r="106" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D106" s="8">
+        <v>35</v>
+      </c>
+      <c r="E106" s="22"/>
+    </row>
+    <row r="107" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D107" s="8">
+        <v>35</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D108" s="8">
+        <v>20</v>
+      </c>
+      <c r="E108" s="22"/>
+    </row>
+    <row r="109" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D109" s="8">
+        <v>20</v>
+      </c>
+      <c r="E109" s="22"/>
+    </row>
+    <row r="110" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D110" s="8">
+        <v>10</v>
+      </c>
+      <c r="E110" s="22"/>
+    </row>
+    <row r="111" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D111" s="8">
+        <v>35</v>
+      </c>
+      <c r="E111" s="22"/>
+    </row>
+    <row r="112" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D112" s="8">
+        <v>20</v>
+      </c>
+      <c r="E112" s="22"/>
+    </row>
+    <row r="113" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D113" s="8">
+        <v>30</v>
+      </c>
+      <c r="E113" s="22"/>
+    </row>
+    <row r="114" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D114" s="8">
+        <v>35</v>
+      </c>
+      <c r="E114" s="22"/>
+    </row>
+    <row r="115" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C115" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D115" s="8">
+        <v>25</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116" s="7">
+        <v>44336</v>
+      </c>
+      <c r="D116" s="8">
+        <v>25</v>
+      </c>
+      <c r="E116" s="22"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" s="7">
+        <v>44337</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="22"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C118" s="7">
+        <v>44337</v>
+      </c>
+      <c r="D118" s="8">
+        <v>20</v>
+      </c>
+      <c r="E118" s="22"/>
+    </row>
+    <row r="119" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B119" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="7">
+        <v>44337</v>
+      </c>
+      <c r="D119" s="8">
+        <v>25</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="7">
+        <v>44337</v>
+      </c>
+      <c r="D120" s="8">
+        <v>30</v>
+      </c>
+      <c r="E120" s="22"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C121" s="7">
+        <v>44337</v>
+      </c>
+      <c r="D121" s="8">
+        <v>30</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122" s="7">
+        <v>44337</v>
+      </c>
+      <c r="D122" s="8">
+        <v>25</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C123" s="7">
+        <v>44337</v>
+      </c>
+      <c r="D123" s="8">
+        <v>10</v>
+      </c>
+      <c r="E123" s="22"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C124" s="7">
+        <v>44337</v>
+      </c>
+      <c r="D124" s="8">
+        <v>30</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="29"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="22"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="29"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="22"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="29"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="22"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="29"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="22"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="29"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="22"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="29"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="22"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="29"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="22"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="29"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="22"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="29"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="22"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="29"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="22"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="29"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="22"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="29"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="22"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="29"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="22"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="29"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="22"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="29"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="22"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="29"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="22"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="29"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="32"/>
+      <c r="D142" s="15"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="27"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="152" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="152" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Documents/Journal de bord SuperBlinder.xlsx
+++ b/Documents/Journal de bord SuperBlinder.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="181">
   <si>
     <t>Date</t>
   </si>
@@ -483,6 +483,96 @@
   </si>
   <si>
     <t>Gestion de la session pour le login et affichage dans le template</t>
+  </si>
+  <si>
+    <t>Recherche de l'erreur de db sur swisscenter</t>
+  </si>
+  <si>
+    <t>Nom des tables convertis en minuscules et case sensitives</t>
+  </si>
+  <si>
+    <t>Upload propre de la db et tests des fonctionnalités</t>
+  </si>
+  <si>
+    <t>Mise a jour de la db en local</t>
+  </si>
+  <si>
+    <t>Fonction rejoindre une partie</t>
+  </si>
+  <si>
+    <t>Adaptation du format des parties</t>
+  </si>
+  <si>
+    <t>Changé la façon dont les parties sont stockées dans la session pour mieux fonctionner entre la génération et rejoindre une partie</t>
+  </si>
+  <si>
+    <t>Aide d'un camarade pour de l'ajax</t>
+  </si>
+  <si>
+    <t>Ajout des types et difficultés des vidéos téléchargées</t>
+  </si>
+  <si>
+    <t>Création du script d'ajout des données de test</t>
+  </si>
+  <si>
+    <t>Changer le nom des fichiers en format unique</t>
+  </si>
+  <si>
+    <t>Option déconnexion</t>
+  </si>
+  <si>
+    <t>Upload de vidéo</t>
+  </si>
+  <si>
+    <t>Gestion des erreurs, des extensions et de la taille des vidéos</t>
+  </si>
+  <si>
+    <t>Affichage des données de jeu</t>
+  </si>
+  <si>
+    <t>Début du formuaire d'upload</t>
+  </si>
+  <si>
+    <t>Recherche et téléchargement de vidéos  pour remplir la base de donnée pour les tests</t>
+  </si>
+  <si>
+    <t>Récupération des données et affichage des options</t>
+  </si>
+  <si>
+    <t>Fin de la partie client du jeu</t>
+  </si>
+  <si>
+    <t>Fin du formulaire, affichage de la vidéo et du son, boutons de réponse fonctionnels</t>
+  </si>
+  <si>
+    <t>Vérification de la réponse</t>
+  </si>
+  <si>
+    <t>Adaptation pour la page de fin de partie</t>
+  </si>
+  <si>
+    <t>Gestion de l'affichage de la fin de partie</t>
+  </si>
+  <si>
+    <t>Enregistrement de score</t>
+  </si>
+  <si>
+    <t>Gestion d'un problème pour l'affichage du score</t>
+  </si>
+  <si>
+    <t>Réponse et ajout dans l'historique</t>
+  </si>
+  <si>
+    <t>Affichage à la fin de la partie, envoi des données et gestion de fin de partie</t>
+  </si>
+  <si>
+    <t>Utilisation d'un INNER JOIN un lieu d'un LEFT JOIN</t>
+  </si>
+  <si>
+    <t>Requête et récupération d'infos, apaptation du template</t>
+  </si>
+  <si>
+    <t>Modifié la page de jeu sans les options et la vidéo pour l'utiliser comme page de fin</t>
   </si>
 </sst>
 </file>
@@ -930,8 +1020,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E142" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B5:E142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E150" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B5:E150"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1208,10 +1298,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E143"/>
+  <dimension ref="B1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1232,11 +1322,11 @@
       </c>
       <c r="C2" s="16">
         <f>SUM(Tableau1[Temps])</f>
-        <v>3050</v>
+        <v>3685</v>
       </c>
       <c r="D2" s="18">
         <f>C2/45</f>
-        <v>67.777777777777771</v>
+        <v>81.888888888888886</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -1246,21 +1336,21 @@
       </c>
       <c r="C3" s="17">
         <f>SUM(Tableau1[Temps])/60</f>
-        <v>50.833333333333336</v>
+        <v>61.416666666666664</v>
       </c>
       <c r="D3" s="20">
         <f ca="1">SUMIF(Tableau1[Date],TODAY(),Tableau1[Temps])/45</f>
         <v>3.7777777777777777</v>
       </c>
       <c r="E3" s="20">
-        <f ca="1">SUMIF(Tableau1[Date],TODAY()-1,Tableau1[Temps])/45</f>
-        <v>7.8888888888888893</v>
+        <f ca="1">SUMIF(Tableau1[Date],TODAY()-2,Tableau1[Temps])/45</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="23">
         <f>C3/90</f>
-        <v>0.56481481481481488</v>
+        <v>0.68240740740740735</v>
       </c>
       <c r="D4" s="21">
         <v>0</v>
@@ -2503,7 +2593,7 @@
       <c r="D103" s="8"/>
       <c r="E103" s="22"/>
     </row>
-    <row r="104" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B104" s="29" t="s">
         <v>125</v>
       </c>
@@ -2517,7 +2607,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B105" s="29" t="s">
         <v>124</v>
       </c>
@@ -2529,7 +2619,7 @@
       </c>
       <c r="E105" s="22"/>
     </row>
-    <row r="106" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B106" s="29" t="s">
         <v>130</v>
       </c>
@@ -2541,7 +2631,7 @@
       </c>
       <c r="E106" s="22"/>
     </row>
-    <row r="107" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B107" s="29" t="s">
         <v>131</v>
       </c>
@@ -2555,7 +2645,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B108" s="29" t="s">
         <v>133</v>
       </c>
@@ -2567,7 +2657,7 @@
       </c>
       <c r="E108" s="22"/>
     </row>
-    <row r="109" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B109" s="29" t="s">
         <v>129</v>
       </c>
@@ -2579,7 +2669,7 @@
       </c>
       <c r="E109" s="22"/>
     </row>
-    <row r="110" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B110" s="29" t="s">
         <v>127</v>
       </c>
@@ -2591,7 +2681,7 @@
       </c>
       <c r="E110" s="22"/>
     </row>
-    <row r="111" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B111" s="29" t="s">
         <v>128</v>
       </c>
@@ -2603,7 +2693,7 @@
       </c>
       <c r="E111" s="22"/>
     </row>
-    <row r="112" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B112" s="29" t="s">
         <v>136</v>
       </c>
@@ -2615,7 +2705,7 @@
       </c>
       <c r="E112" s="22"/>
     </row>
-    <row r="113" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B113" s="29" t="s">
         <v>141</v>
       </c>
@@ -2627,7 +2717,7 @@
       </c>
       <c r="E113" s="22"/>
     </row>
-    <row r="114" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B114" s="29" t="s">
         <v>144</v>
       </c>
@@ -2639,7 +2729,7 @@
       </c>
       <c r="E114" s="22"/>
     </row>
-    <row r="115" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B115" s="29" t="s">
         <v>148</v>
       </c>
@@ -2653,7 +2743,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B116" s="31" t="s">
         <v>150</v>
       </c>
@@ -2665,7 +2755,7 @@
       </c>
       <c r="E116" s="22"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B117" s="31" t="s">
         <v>64</v>
       </c>
@@ -2675,7 +2765,7 @@
       <c r="D117" s="8"/>
       <c r="E117" s="22"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B118" s="29" t="s">
         <v>134</v>
       </c>
@@ -2687,7 +2777,7 @@
       </c>
       <c r="E118" s="22"/>
     </row>
-    <row r="119" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B119" s="31" t="s">
         <v>149</v>
       </c>
@@ -2701,7 +2791,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B120" s="29" t="s">
         <v>140</v>
       </c>
@@ -2713,7 +2803,7 @@
       </c>
       <c r="E120" s="22"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B121" s="29" t="s">
         <v>137</v>
       </c>
@@ -2727,7 +2817,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B122" s="29" t="s">
         <v>142</v>
       </c>
@@ -2741,7 +2831,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B123" s="29" t="s">
         <v>147</v>
       </c>
@@ -2753,7 +2843,7 @@
       </c>
       <c r="E123" s="22"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B124" s="29" t="s">
         <v>139</v>
       </c>
@@ -2767,117 +2857,311 @@
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="29"/>
-      <c r="C125" s="7"/>
+    <row r="125" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" s="7">
+        <v>44341</v>
+      </c>
       <c r="D125" s="8"/>
       <c r="E125" s="22"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="29"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="22"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="29"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="22"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="29"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="8"/>
+    <row r="126" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="7">
+        <v>44341</v>
+      </c>
+      <c r="D126" s="8">
+        <v>20</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="7">
+        <v>44341</v>
+      </c>
+      <c r="D127" s="8">
+        <v>20</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" s="7">
+        <v>44341</v>
+      </c>
+      <c r="D128" s="8">
+        <v>50</v>
+      </c>
       <c r="E128" s="22"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="29"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="22"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="29"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="8"/>
+    <row r="129" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="7">
+        <v>44341</v>
+      </c>
+      <c r="D129" s="8">
+        <v>20</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C130" s="7">
+        <v>44341</v>
+      </c>
+      <c r="D130" s="8">
+        <v>45</v>
+      </c>
       <c r="E130" s="22"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="29"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="22"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="29"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="8"/>
+    <row r="131" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="7">
+        <v>44341</v>
+      </c>
+      <c r="D131" s="8">
+        <v>50</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="7">
+        <v>44341</v>
+      </c>
+      <c r="D132" s="8">
+        <v>30</v>
+      </c>
       <c r="E132" s="22"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="29"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="8"/>
+    <row r="133" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" s="7">
+        <v>44341</v>
+      </c>
+      <c r="D133" s="8">
+        <v>20</v>
+      </c>
       <c r="E133" s="22"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="29"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="8"/>
+    <row r="134" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="7">
+        <v>44341</v>
+      </c>
+      <c r="D134" s="8">
+        <v>45</v>
+      </c>
       <c r="E134" s="22"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="29"/>
+    <row r="135" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="C135" s="7"/>
       <c r="D135" s="8"/>
       <c r="E135" s="22"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="29"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="8"/>
+    <row r="136" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C136" s="7">
+        <v>44343</v>
+      </c>
+      <c r="D136" s="8">
+        <v>30</v>
+      </c>
       <c r="E136" s="22"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="29"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="8"/>
+    <row r="137" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C137" s="7">
+        <v>44343</v>
+      </c>
+      <c r="D137" s="8">
+        <v>45</v>
+      </c>
       <c r="E137" s="22"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="29"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="8"/>
+    <row r="138" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" s="7">
+        <v>44343</v>
+      </c>
+      <c r="D138" s="8">
+        <v>45</v>
+      </c>
       <c r="E138" s="22"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="29"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="22"/>
+    <row r="139" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="7">
+        <v>44343</v>
+      </c>
+      <c r="D139" s="8">
+        <v>45</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="29"/>
-      <c r="C140" s="7"/>
+      <c r="B140" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" s="7">
+        <v>44344</v>
+      </c>
       <c r="D140" s="8"/>
       <c r="E140" s="22"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="29"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="22"/>
+    <row r="141" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B141" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C141" s="7">
+        <v>44344</v>
+      </c>
+      <c r="D141" s="8">
+        <v>35</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="32"/>
-      <c r="D142" s="15"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="27"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="14"/>
+      <c r="B142" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" s="7">
+        <v>44344</v>
+      </c>
+      <c r="D142" s="8">
+        <v>25</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B143" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="7">
+        <v>44344</v>
+      </c>
+      <c r="D143" s="8">
+        <v>25</v>
+      </c>
+      <c r="E143" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C144" s="7">
+        <v>44344</v>
+      </c>
+      <c r="D144" s="8">
+        <v>35</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C145" s="7">
+        <v>44344</v>
+      </c>
+      <c r="D145" s="8">
+        <v>25</v>
+      </c>
+      <c r="E145" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="7">
+        <v>44344</v>
+      </c>
+      <c r="D146" s="8">
+        <v>25</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="29"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="22"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="29"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="22"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="29"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="22"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="32"/>
+      <c r="D150" s="15"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="27"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Journal de bord SuperBlinder.xlsx
+++ b/Documents/Journal de bord SuperBlinder.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="214">
   <si>
     <t>Date</t>
   </si>
@@ -573,6 +573,105 @@
   </si>
   <si>
     <t>Modifié la page de jeu sans les options et la vidéo pour l'utiliser comme page de fin</t>
+  </si>
+  <si>
+    <t>Début du passage des tests du sprint 3</t>
+  </si>
+  <si>
+    <t>Résolution d'un bug qui permet de créer plusieurs comptes avec la même adresse mail</t>
+  </si>
+  <si>
+    <t>Sprint review 3</t>
+  </si>
+  <si>
+    <t>Création de la maquette pour la fin de partie</t>
+  </si>
+  <si>
+    <t>Ajouts cosmétiques</t>
+  </si>
+  <si>
+    <t>Résolution d'un bug qui empêche de lancer une partie avec uniquement des films ou des séries</t>
+  </si>
+  <si>
+    <t>Texte pour expliquer qu'il faut cliquer pour lancer la vidéo et bouton de retour a la page d'accueil, changer les messages d'erreur pour ne pas indiquer si un compte existe déjà au login</t>
+  </si>
+  <si>
+    <t>Enlevé la partie audio de l'upload</t>
+  </si>
+  <si>
+    <t>Création du logo</t>
+  </si>
+  <si>
+    <t>Mise a jour finale des maquettes</t>
+  </si>
+  <si>
+    <t>Exportation finale des tests d'acceptations des sprints 1, 2 et 3</t>
+  </si>
+  <si>
+    <t>Résolution d'un bug propose 2 fois la bonne résponse dont une ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>Mise en forme de la documentation</t>
+  </si>
+  <si>
+    <t>Début d'ajout des commentaires</t>
+  </si>
+  <si>
+    <t>Corrections sur les parties déjà ajoutées de la documentation</t>
+  </si>
+  <si>
+    <t>Recherche/préparation pour les diagrammes de séquences</t>
+  </si>
+  <si>
+    <t>Début du rapport de TPI</t>
+  </si>
+  <si>
+    <t>Diagramme de flux de la génération</t>
+  </si>
+  <si>
+    <t>Diagramme de flux du début de partie</t>
+  </si>
+  <si>
+    <t>Diagramme de séquence de la génération</t>
+  </si>
+  <si>
+    <t>Fin des commentaires, ajouts des headers d'auteur, nettoyage de code</t>
+  </si>
+  <si>
+    <t>Création du script de création de l'utilisateur SQL</t>
+  </si>
+  <si>
+    <t>Début de la documentation de la réalisation</t>
+  </si>
+  <si>
+    <t>Ajout du sprint 4</t>
+  </si>
+  <si>
+    <t>Diagramme de flux du jeu</t>
+  </si>
+  <si>
+    <t>En donnant la bonne réponse, la page ne s'envoie pas toute seule et la vidéo apparait, ajout d'un bouton passer</t>
+  </si>
+  <si>
+    <t>Relecture finale et création de la release</t>
+  </si>
+  <si>
+    <t>Fin des diagrammes de flux</t>
+  </si>
+  <si>
+    <t>Fin du diagramme de séquence</t>
+  </si>
+  <si>
+    <t>Fin de la partie réalisation de la documentation</t>
+  </si>
+  <si>
+    <t>Partie annexe de la documentation</t>
+  </si>
+  <si>
+    <t>Relecture commune</t>
+  </si>
+  <si>
+    <t>Retouche/corrections de certains diagrammes</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1119,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E150" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="B5:E150"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:E188" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="B5:E188"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1298,10 +1397,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E151"/>
+  <dimension ref="B1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1322,11 +1421,11 @@
       </c>
       <c r="C2" s="16">
         <f>SUM(Tableau1[Temps])</f>
-        <v>3685</v>
+        <v>4670</v>
       </c>
       <c r="D2" s="18">
         <f>C2/45</f>
-        <v>81.888888888888886</v>
+        <v>103.77777777777777</v>
       </c>
       <c r="E2" s="19"/>
     </row>
@@ -1336,21 +1435,21 @@
       </c>
       <c r="C3" s="17">
         <f>SUM(Tableau1[Temps])/60</f>
-        <v>61.416666666666664</v>
+        <v>77.833333333333329</v>
       </c>
       <c r="D3" s="20">
         <f ca="1">SUMIF(Tableau1[Date],TODAY(),Tableau1[Temps])/45</f>
-        <v>3.7777777777777777</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E3" s="20">
-        <f ca="1">SUMIF(Tableau1[Date],TODAY()-2,Tableau1[Temps])/45</f>
-        <v>0</v>
+        <f ca="1">SUMIF(Tableau1[Date],TODAY()-1,Tableau1[Temps])/45</f>
+        <v>6.8888888888888893</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="23">
         <f>C3/90</f>
-        <v>0.68240740740740735</v>
+        <v>0.86481481481481481</v>
       </c>
       <c r="D4" s="21">
         <v>0</v>
@@ -2987,11 +3086,13 @@
       <c r="B135" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C135" s="7"/>
+      <c r="C135" s="7">
+        <v>44343</v>
+      </c>
       <c r="D135" s="8"/>
       <c r="E135" s="22"/>
     </row>
-    <row r="136" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B136" s="29" t="s">
         <v>162</v>
       </c>
@@ -3003,7 +3104,7 @@
       </c>
       <c r="E136" s="22"/>
     </row>
-    <row r="137" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B137" s="29" t="s">
         <v>163</v>
       </c>
@@ -3015,7 +3116,7 @@
       </c>
       <c r="E137" s="22"/>
     </row>
-    <row r="138" spans="2:5" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B138" s="29" t="s">
         <v>164</v>
       </c>
@@ -3027,7 +3128,7 @@
       </c>
       <c r="E138" s="22"/>
     </row>
-    <row r="139" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B139" s="29" t="s">
         <v>165</v>
       </c>
@@ -3041,7 +3142,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B140" s="31" t="s">
         <v>64</v>
       </c>
@@ -3051,7 +3152,7 @@
       <c r="D140" s="8"/>
       <c r="E140" s="22"/>
     </row>
-    <row r="141" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B141" s="29" t="s">
         <v>169</v>
       </c>
@@ -3065,7 +3166,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B142" s="29" t="s">
         <v>171</v>
       </c>
@@ -3079,7 +3180,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B143" s="29" t="s">
         <v>172</v>
       </c>
@@ -3093,7 +3194,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B144" s="29" t="s">
         <v>173</v>
       </c>
@@ -3107,7 +3208,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B145" s="29" t="s">
         <v>174</v>
       </c>
@@ -3121,7 +3222,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B146" s="29" t="s">
         <v>175</v>
       </c>
@@ -3135,33 +3236,473 @@
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="29"/>
-      <c r="C147" s="7"/>
+    <row r="147" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="7">
+        <v>44347</v>
+      </c>
       <c r="D147" s="8"/>
       <c r="E147" s="22"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="29"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="8"/>
+    <row r="148" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C148" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D148" s="8">
+        <v>20</v>
+      </c>
       <c r="E148" s="22"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="29"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="8"/>
+    <row r="149" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C149" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D149" s="8">
+        <v>20</v>
+      </c>
       <c r="E149" s="22"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="32"/>
-      <c r="D150" s="15"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="27"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="14"/>
+    <row r="150" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C150" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D150" s="8">
+        <v>45</v>
+      </c>
+      <c r="E150" s="22"/>
+    </row>
+    <row r="151" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C151" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D151" s="8">
+        <v>10</v>
+      </c>
+      <c r="E151" s="22"/>
+    </row>
+    <row r="152" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C152" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D152" s="8">
+        <v>20</v>
+      </c>
+      <c r="E152" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C153" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D153" s="8">
+        <v>25</v>
+      </c>
+      <c r="E153" s="22"/>
+    </row>
+    <row r="154" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C154" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D154" s="8">
+        <v>30</v>
+      </c>
+      <c r="E154" s="22"/>
+    </row>
+    <row r="155" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C155" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D155" s="8">
+        <v>10</v>
+      </c>
+      <c r="E155" s="22"/>
+    </row>
+    <row r="156" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C156" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D156" s="8">
+        <v>10</v>
+      </c>
+      <c r="E156" s="22"/>
+    </row>
+    <row r="157" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C157" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D157" s="8">
+        <v>25</v>
+      </c>
+      <c r="E157" s="22"/>
+    </row>
+    <row r="158" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C158" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D158" s="8">
+        <v>20</v>
+      </c>
+      <c r="E158" s="22"/>
+    </row>
+    <row r="159" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C159" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D159" s="8">
+        <v>45</v>
+      </c>
+      <c r="E159" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C160" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D160" s="8">
+        <v>30</v>
+      </c>
+      <c r="E160" s="22"/>
+    </row>
+    <row r="161" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C161" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D161" s="8">
+        <v>30</v>
+      </c>
+      <c r="E161" s="22"/>
+    </row>
+    <row r="162" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C162" s="7">
+        <v>44347</v>
+      </c>
+      <c r="D162" s="8">
+        <v>20</v>
+      </c>
+      <c r="E162" s="22"/>
+    </row>
+    <row r="163" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C163" s="7">
+        <v>44348</v>
+      </c>
+      <c r="D163" s="8"/>
+      <c r="E163" s="22"/>
+    </row>
+    <row r="164" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C164" s="7">
+        <v>44348</v>
+      </c>
+      <c r="D164" s="8">
+        <v>45</v>
+      </c>
+      <c r="E164" s="22"/>
+    </row>
+    <row r="165" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C165" s="7">
+        <v>44348</v>
+      </c>
+      <c r="D165" s="8">
+        <v>40</v>
+      </c>
+      <c r="E165" s="22"/>
+    </row>
+    <row r="166" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C166" s="7">
+        <v>44348</v>
+      </c>
+      <c r="D166" s="8">
+        <v>40</v>
+      </c>
+      <c r="E166" s="22"/>
+    </row>
+    <row r="167" spans="2:5" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C167" s="7">
+        <v>44348</v>
+      </c>
+      <c r="D167" s="8">
+        <v>25</v>
+      </c>
+      <c r="E167" s="22"/>
+    </row>
+    <row r="168" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C168" s="7">
+        <v>44348</v>
+      </c>
+      <c r="D168" s="8">
+        <v>45</v>
+      </c>
+      <c r="E168" s="22"/>
+    </row>
+    <row r="169" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C169" s="7">
+        <v>44348</v>
+      </c>
+      <c r="D169" s="8">
+        <v>15</v>
+      </c>
+      <c r="E169" s="22"/>
+    </row>
+    <row r="170" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170" s="7">
+        <v>44348</v>
+      </c>
+      <c r="D170" s="8">
+        <v>60</v>
+      </c>
+      <c r="E170" s="22"/>
+    </row>
+    <row r="171" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C171" s="7">
+        <v>44348</v>
+      </c>
+      <c r="D171" s="8">
+        <v>15</v>
+      </c>
+      <c r="E171" s="22"/>
+    </row>
+    <row r="172" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C172" s="7">
+        <v>44350</v>
+      </c>
+      <c r="D172" s="8"/>
+      <c r="E172" s="22"/>
+    </row>
+    <row r="173" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C173" s="7">
+        <v>44350</v>
+      </c>
+      <c r="D173" s="8">
+        <v>30</v>
+      </c>
+      <c r="E173" s="22"/>
+    </row>
+    <row r="174" spans="2:5" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C174" s="7">
+        <v>44350</v>
+      </c>
+      <c r="D174" s="8">
+        <v>45</v>
+      </c>
+      <c r="E174" s="22"/>
+    </row>
+    <row r="175" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C175" s="7">
+        <v>44350</v>
+      </c>
+      <c r="D175" s="8">
+        <v>30</v>
+      </c>
+      <c r="E175" s="22"/>
+    </row>
+    <row r="176" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C176" s="7">
+        <v>44350</v>
+      </c>
+      <c r="D176" s="8">
+        <v>30</v>
+      </c>
+      <c r="E176" s="22"/>
+    </row>
+    <row r="177" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C177" s="7">
+        <v>44350</v>
+      </c>
+      <c r="D177" s="8">
+        <v>30</v>
+      </c>
+      <c r="E177" s="22"/>
+    </row>
+    <row r="178" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C178" s="7">
+        <v>44350</v>
+      </c>
+      <c r="D178" s="8">
+        <v>70</v>
+      </c>
+      <c r="E178" s="22"/>
+    </row>
+    <row r="179" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C179" s="7">
+        <v>44350</v>
+      </c>
+      <c r="D179" s="8">
+        <v>30</v>
+      </c>
+      <c r="E179" s="22"/>
+    </row>
+    <row r="180" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C180" s="7">
+        <v>44350</v>
+      </c>
+      <c r="D180" s="8">
+        <v>45</v>
+      </c>
+      <c r="E180" s="22"/>
+    </row>
+    <row r="181" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C181" s="7">
+        <v>44351</v>
+      </c>
+      <c r="D181" s="8"/>
+      <c r="E181" s="22"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C182" s="7">
+        <v>44351</v>
+      </c>
+      <c r="D182" s="8">
+        <v>30</v>
+      </c>
+      <c r="E182" s="22"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="29"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="22"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="29"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="22"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="29"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="22"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="29"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="22"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="29"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="22"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="32"/>
+      <c r="D188" s="15"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="27"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
